--- a/MODELS.xlsx
+++ b/MODELS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c80db5b0012a0b4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WYSE\Home\dev\pigallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="8_{5B51A8CE-FB7C-4D2B-BDA0-E6ECB2F1592F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D06AAB3-DDF4-4F40-A057-F65A8D5DF7F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30004A5B-D3EF-4FB1-A132-E5203914D9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{5E1FBCF5-0A35-4073-AF84-4DBDFF6F4B57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{5E1FBCF5-0A35-4073-AF84-4DBDFF6F4B57}"/>
   </bookViews>
   <sheets>
     <sheet name="AI Models" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>Model</t>
   </si>
@@ -182,16 +182,10 @@
     <t>Must use v1 model as v2 is incompatible with TFJS</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>Best</t>
   </si>
   <si>
     <t>EfficientNet B5</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
 </sst>
 </file>
@@ -199,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="0\ &quot;MB&quot;"/>
-    <numFmt numFmtId="171" formatCode="0\ &quot;px&quot;"/>
-    <numFmt numFmtId="172" formatCode="0\ &quot;ms&quot;"/>
+    <numFmt numFmtId="164" formatCode="0\ &quot;MB&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;px&quot;"/>
+    <numFmt numFmtId="166" formatCode="0\ &quot;ms&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -373,46 +367,46 @@
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,15 +416,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -751,31 +745,31 @@
   <dimension ref="B2:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.23046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.23046875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.3828125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.23046875" style="1"/>
-    <col min="20" max="20" width="5.3828125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.26953125" style="1"/>
+    <col min="20" max="20" width="5.36328125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:24" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -792,7 +786,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -824,7 +818,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>31</v>
@@ -833,7 +827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="38" t="s">
         <v>20</v>
       </c>
@@ -874,7 +868,7 @@
       <c r="N4" s="41"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
@@ -915,7 +909,7 @@
       <c r="N5" s="42"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="39" t="s">
         <v>21</v>
       </c>
@@ -956,7 +950,7 @@
       <c r="N6" s="42"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="39" t="s">
         <v>22</v>
       </c>
@@ -997,7 +991,7 @@
       <c r="N7" s="42"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1032,7 @@
       <c r="N8" s="42"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="39" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1074,7 @@
       </c>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="39" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1115,7 @@
       <c r="N10" s="42"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1156,7 @@
       <c r="N11" s="42"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="39" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1197,7 @@
       <c r="N12" s="42"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="39" t="s">
         <v>40</v>
       </c>
@@ -1244,7 +1238,7 @@
       <c r="N13" s="42"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="39" t="s">
         <v>39</v>
       </c>
@@ -1286,7 +1280,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="39" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1322,7 @@
       </c>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="39" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="39" t="s">
         <v>14</v>
       </c>
@@ -1412,9 +1406,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>19</v>
@@ -1453,7 +1447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="39" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +1489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>321</v>
       </c>
       <c r="H20" s="25">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="I20" s="51">
         <v>257</v>
@@ -1535,17 +1529,8 @@
       <c r="N20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="39" t="s">
         <v>17</v>
       </c>
@@ -1565,7 +1550,7 @@
         <v>323</v>
       </c>
       <c r="H21" s="25">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="I21" s="51">
         <v>212</v>
@@ -1583,17 +1568,8 @@
         <v>44</v>
       </c>
       <c r="N21" s="42"/>
-      <c r="P21" s="1">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>2</v>
-      </c>
-      <c r="R21" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="39" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="25">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>44</v>
@@ -1634,7 +1610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="38" t="s">
         <v>28</v>
       </c>
@@ -1657,7 +1633,7 @@
       <c r="M23" s="49"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="39" t="s">
         <v>29</v>
       </c>
@@ -1680,7 +1656,7 @@
       <c r="M24" s="28"/>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="39" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1675,7 @@
       <c r="M25" s="28"/>
       <c r="N25" s="42"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="39" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1694,7 @@
       <c r="M26" s="28"/>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="39" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +1713,7 @@
       <c r="M27" s="28"/>
       <c r="N27" s="42"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="39" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +1732,7 @@
       <c r="M28" s="28"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="39" t="s">
         <v>29</v>
       </c>
@@ -1779,7 +1755,7 @@
       <c r="M29" s="28"/>
       <c r="N29" s="42"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="40" t="s">
         <v>38</v>
       </c>

--- a/MODELS.xlsx
+++ b/MODELS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WYSE\Home\dev\pigallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30004A5B-D3EF-4FB1-A132-E5203914D9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864C784-1690-42F9-9270-4381A9CAA8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{5E1FBCF5-0A35-4073-AF84-4DBDFF6F4B57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -95,9 +95,6 @@
     <t>BiT-M R152x4</t>
   </si>
   <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>MobileNet v1</t>
   </si>
   <si>
@@ -107,21 +104,6 @@
     <t>Inception v2</t>
   </si>
   <si>
-    <t>Detection</t>
-  </si>
-  <si>
-    <t>DarkNet/Yolo v1 Tiny</t>
-  </si>
-  <si>
-    <t>DarkNet/Yolo v2 Tiny</t>
-  </si>
-  <si>
-    <t>DarkNet/Yolo v3 Tiny</t>
-  </si>
-  <si>
-    <t>DarkNet/Yolo v3 Full</t>
-  </si>
-  <si>
     <t>SSD/MobileNet v1</t>
   </si>
   <si>
@@ -134,12 +116,6 @@
     <t>Empty</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Classes</t>
   </si>
   <si>
@@ -186,6 +162,39 @@
   </si>
   <si>
     <t>EfficientNet B5</t>
+  </si>
+  <si>
+    <t>Yolo/DarkNet v1 Tiny</t>
+  </si>
+  <si>
+    <t>Yolo/DarkNet v2 Tiny</t>
+  </si>
+  <si>
+    <t>Yolo/DarkNet v3 Tiny</t>
+  </si>
+  <si>
+    <t>Yolo/DarkNet v3 Full</t>
+  </si>
+  <si>
+    <t>Coco+VOC</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Image Classification</t>
+  </si>
+  <si>
+    <t>Object Detection</t>
+  </si>
+  <si>
+    <t>Float32 based model</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
     <numFmt numFmtId="165" formatCode="0\ &quot;px&quot;"/>
     <numFmt numFmtId="166" formatCode="0\ &quot;ms&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,14 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -236,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +256,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,11 +285,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -279,7 +298,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -287,17 +306,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -307,24 +326,15 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -337,7 +347,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -348,14 +358,69 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -364,68 +429,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,1042 +894,1204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E8F53-D3D8-4705-BCEE-FCFF3106DC67}">
   <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.26953125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9.26953125" style="1"/>
     <col min="20" max="20" width="5.36328125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="C4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="24">
         <v>1000</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="25">
         <v>16</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="24">
         <v>59</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>224</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="27">
         <v>150</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="28">
         <f>1-K4-M4</f>
         <v>0.75789473684210529</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="28">
         <v>0.14736842105263157</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="28">
         <v>0</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="29">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="X4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="X4" s="2"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="C5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24">
         <v>1000</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="25">
         <v>13</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="24">
         <v>125</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>224</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="31">
         <v>112</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="32">
         <f t="shared" ref="J5:J19" si="0">1-K5-M5</f>
         <v>0.75789473684210529</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="32">
         <v>0.10526315789473684</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="32">
         <v>0.10526315789473684</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="33">
         <v>0.1368421052631579</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="X5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="B6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="24">
         <v>1000</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="25">
         <v>25</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <v>120</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>224</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="31">
         <v>230</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="32">
         <f t="shared" si="0"/>
         <v>0.69473684210526321</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="32">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="32">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="33">
         <v>0.21052631578947367</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="X6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="X6" s="2"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="24">
         <v>1000</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="25">
         <v>43</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <v>145</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>224</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="31">
         <v>165</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="32">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="32">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="32">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="33">
         <v>0.14736842105263157</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="X7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="C8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="24">
         <v>1000</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="25">
         <v>91</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="24">
         <v>194</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <v>224</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="31">
         <v>203</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="32">
         <f t="shared" si="0"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="32">
         <v>0.10526315789473684</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="32">
         <v>0.10526315789473684</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="33">
         <v>0</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="X8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="X8" s="2"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="C9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="24">
         <v>1000</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="25">
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="26">
         <v>224</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" s="5"/>
+      <c r="I9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="2"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="C10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="24">
         <v>1000</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="25">
         <v>98</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>147</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>224</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="31">
         <v>128</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="32">
         <f t="shared" si="0"/>
         <v>0.83157894736842108</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="32">
         <v>0.14736842105263157</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="32">
         <v>0.14736842105263157</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="33">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="X10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="C11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="24">
         <v>1000</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="25">
         <v>170</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <v>283</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>224</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="31">
         <v>94</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="32">
         <f t="shared" si="0"/>
         <v>0.82105263157894737</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="32">
         <v>0.15789473684210525</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="32">
         <v>0.15789473684210525</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="33">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="X11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="X11" s="2"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="C12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="24">
         <v>1000</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="25">
         <v>213</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="24">
         <v>500</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <v>224</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="31">
         <v>228</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="32">
         <f t="shared" si="0"/>
         <v>0.91578947368421049</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="32">
         <v>8.4210526315789472E-2</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="32">
         <v>8.4210526315789472E-2</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="33">
         <v>0</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="X12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="X12" s="2"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="B13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="24">
         <v>1000</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="24">
         <v>574</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <v>224</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="31">
         <v>170</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="32">
         <f t="shared" si="0"/>
         <v>0.85263157894736841</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="32">
         <v>0.11578947368421053</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="32">
         <v>0.11578947368421053</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="33">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="X13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="X13" s="2"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="B14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="24">
         <v>1000</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="25">
+      <c r="F14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="26">
         <v>224</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="X14" s="5"/>
+      <c r="I14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="2"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="B15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="24">
         <v>1000</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="25">
+      <c r="F15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="26">
         <v>224</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="X15" s="5"/>
+      <c r="I15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="2"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="C16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="24">
         <v>1000</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="25">
         <v>20</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>168</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>224</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="31">
         <v>134</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="32">
         <f t="shared" si="0"/>
         <v>0.83157894736842108</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="32">
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="32">
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="33">
         <v>0.10526315789473684</v>
       </c>
-      <c r="N16" s="42" t="s">
-        <v>47</v>
+      <c r="N16" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="C17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="24">
         <v>1000</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="25">
         <v>74</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>338</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <v>380</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="31">
         <v>438</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="32">
         <f t="shared" si="0"/>
         <v>0.91578947368421049</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="32">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="32">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="33">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="N17" s="42" t="s">
-        <v>47</v>
+      <c r="N17" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="B18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="24">
         <v>1000</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="25">
         <v>116</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="24">
         <v>394</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="26">
         <v>456</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="31">
         <v>448</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="32">
         <v>0.94</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="32">
         <v>0.02</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="32">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="33">
         <v>3.15E-2</v>
       </c>
-      <c r="N18" s="42" t="s">
-        <v>47</v>
+      <c r="N18" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="C19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="24">
         <v>1000</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="25">
         <v>253</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>552</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="26">
         <v>600</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="31">
         <v>995</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="32">
         <f t="shared" si="0"/>
         <v>0.96842105263157896</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="32">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="32">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="33">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="N19" s="42" t="s">
-        <v>47</v>
+      <c r="N19" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="C20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="24">
         <v>21843</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="25">
         <v>162</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="24">
         <v>321</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="26">
         <v>101</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="31">
         <v>257</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="24">
+        <v>21843</v>
+      </c>
+      <c r="F21" s="25">
+        <v>333</v>
+      </c>
+      <c r="G21" s="24">
+        <v>323</v>
+      </c>
+      <c r="H21" s="26">
+        <v>101</v>
+      </c>
+      <c r="I21" s="31">
+        <v>212</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="24">
+        <v>21843</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="26">
+        <v>152</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="37">
+        <v>90</v>
+      </c>
+      <c r="F23" s="38">
+        <v>26</v>
+      </c>
+      <c r="G23" s="37">
+        <v>163</v>
+      </c>
+      <c r="H23" s="39">
+        <v>224</v>
+      </c>
+      <c r="I23" s="27">
+        <v>120</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" ref="J23:J24" si="1">1-K23-M23</f>
+        <v>0.62105263157894741</v>
+      </c>
+      <c r="K23" s="28">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="L23" s="28">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29">
+        <v>0.28421052631578947</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="24">
+        <v>90</v>
+      </c>
+      <c r="F24" s="25">
+        <v>64</v>
+      </c>
+      <c r="G24" s="24">
+        <v>202</v>
+      </c>
+      <c r="H24" s="26">
+        <v>224</v>
+      </c>
+      <c r="I24" s="31">
+        <v>147</v>
+      </c>
+      <c r="J24" s="32">
+        <f t="shared" si="1"/>
+        <v>0.67368421052631577</v>
+      </c>
+      <c r="K24" s="32">
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33">
+        <v>0.24210526315789474</v>
+      </c>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="24">
+        <v>100</v>
+      </c>
+      <c r="F25" s="25">
+        <v>62</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="26">
+        <v>416</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="24">
+        <v>100</v>
+      </c>
+      <c r="F26" s="25">
+        <v>43</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="26">
+        <v>416</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="42" t="s">
+      <c r="C27" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="23">
-        <v>21843</v>
-      </c>
-      <c r="F21" s="29">
-        <v>333</v>
-      </c>
-      <c r="G21" s="50">
-        <v>323</v>
-      </c>
-      <c r="H21" s="25">
-        <v>101</v>
-      </c>
-      <c r="I21" s="51">
-        <v>212</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="42"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="23">
-        <v>21843</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="25">
-        <v>152</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="42" t="s">
+      <c r="E27" s="24">
+        <v>100</v>
+      </c>
+      <c r="F27" s="25">
+        <v>34</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="26">
+        <v>416</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="C28" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="24">
+        <v>100</v>
+      </c>
+      <c r="F28" s="25">
+        <v>242</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="26">
+        <v>416</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="44">
-        <v>90</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="39" t="s">
+      <c r="C29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="23">
-        <v>90</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="42"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="42"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="42"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="42"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="42"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="E29" s="24">
         <v>600</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="42"/>
+      <c r="F29" s="25">
+        <v>55</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1434</v>
+      </c>
+      <c r="H29" s="26">
+        <v>300</v>
+      </c>
+      <c r="I29" s="31">
+        <v>2709</v>
+      </c>
+      <c r="J29" s="32">
+        <f t="shared" ref="J29" si="2">1-K29-M29</f>
+        <v>0.9263157894736842</v>
+      </c>
+      <c r="K29" s="32">
+        <v>2.1052631578947368E-2</v>
+      </c>
+      <c r="L29" s="32">
+        <v>0.16842105263157894</v>
+      </c>
+      <c r="M29" s="33">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="41">
+        <v>600</v>
+      </c>
+      <c r="F30" s="42">
+        <v>224</v>
+      </c>
+      <c r="G30" s="41">
+        <v>1944</v>
+      </c>
+      <c r="H30" s="43">
+        <v>300</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="32">
-        <v>600</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:N30" xr:uid="{0041FA21-C734-47E2-9605-B6E4CDD7F534}"/>
+  <mergeCells count="1">
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/MODELS.xlsx
+++ b/MODELS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WYSE\Home\dev\pigallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864C784-1690-42F9-9270-4381A9CAA8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37026E-24D3-49F9-8BDE-E1BA11F41629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{5E1FBCF5-0A35-4073-AF84-4DBDFF6F4B57}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="AI Models" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AI Models'!$B$3:$N$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AI Models'!$B$3:$N$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -131,33 +131,18 @@
     <t>RCNN/Inception-ResNet v2</t>
   </si>
   <si>
-    <t>NASNet-A Large</t>
-  </si>
-  <si>
     <t>NASNet-A Mobile</t>
   </si>
   <si>
-    <t>PNASNet-5</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>No signature name in saved model</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Out of memory condition</t>
   </si>
   <si>
-    <t>Corrupt class output</t>
-  </si>
-  <si>
-    <t>Must use v1 model as v2 is incompatible with TFJS</t>
-  </si>
-  <si>
     <t>Best</t>
   </si>
   <si>
@@ -195,6 +180,9 @@
   </si>
   <si>
     <t>Float32 based model</t>
+  </si>
+  <si>
+    <t>DeepDetect</t>
   </si>
 </sst>
 </file>
@@ -469,112 +457,112 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -892,7 +880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E8F53-D3D8-4705-BCEE-FCFF3106DC67}">
-  <dimension ref="B2:X30"/>
+  <dimension ref="B2:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,14 +891,14 @@
     <col min="3" max="3" width="18.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="49" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9.26953125" style="1"/>
     <col min="20" max="20" width="5.36328125" style="1" customWidth="1"/>
@@ -926,1169 +914,1118 @@
       <c r="G2" s="11"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="22" t="s">
+      <c r="J3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>1000</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>16</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>59</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>224</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>150</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <f>1-K4-M4</f>
         <v>0.75789473684210529</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <v>0.14736842105263157</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="27">
         <v>0</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>9.4736842105263161E-2</v>
       </c>
       <c r="N4" s="5"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>1000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>13</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>125</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>224</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>112</v>
       </c>
-      <c r="J5" s="32">
-        <f t="shared" ref="J5:J19" si="0">1-K5-M5</f>
+      <c r="J5" s="31">
+        <f t="shared" ref="J5:J17" si="0">1-K5-M5</f>
         <v>0.75789473684210529</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <v>0.10526315789473684</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="31">
         <v>0.10526315789473684</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>0.1368421052631579</v>
       </c>
       <c r="N5" s="6"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>1000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>25</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>120</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>224</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>230</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <f t="shared" si="0"/>
         <v>0.69473684210526321</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <v>0.21052631578947367</v>
       </c>
       <c r="N6" s="6"/>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>1000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>43</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>145</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>224</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <v>165</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="31">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <v>0.14736842105263157</v>
       </c>
       <c r="N7" s="6"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>1000</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>91</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>194</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>224</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <v>203</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <f t="shared" si="0"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>0.10526315789473684</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>0.10526315789473684</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>0</v>
       </c>
       <c r="N8" s="6"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>1000</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="F9" s="24">
+        <v>163</v>
+      </c>
+      <c r="G9" s="23">
+        <v>304</v>
+      </c>
+      <c r="H9" s="25">
+        <v>300</v>
+      </c>
+      <c r="I9" s="30">
+        <v>299</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="K9" s="33">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M9" s="34">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="24">
+        <v>98</v>
+      </c>
+      <c r="G10" s="23">
+        <v>147</v>
+      </c>
+      <c r="H10" s="25">
         <v>224</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="25">
-        <v>98</v>
-      </c>
-      <c r="G10" s="24">
-        <v>147</v>
-      </c>
-      <c r="H10" s="26">
-        <v>224</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <v>128</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <f t="shared" si="0"/>
         <v>0.83157894736842108</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>0.14736842105263157</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <v>0.14736842105263157</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>2.1052631578947368E-2</v>
       </c>
       <c r="N10" s="6"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>1000</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>170</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>283</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>224</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>94</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <f t="shared" si="0"/>
         <v>0.82105263157894737</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>0.15789473684210525</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <v>0.15789473684210525</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <v>2.1052631578947368E-2</v>
       </c>
       <c r="N11" s="6"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>1000</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>213</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>500</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>224</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <v>228</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <f t="shared" si="0"/>
         <v>0.91578947368421049</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>8.4210526315789472E-2</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>8.4210526315789472E-2</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>0</v>
       </c>
       <c r="N12" s="6"/>
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>1000</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>20</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>574</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>224</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>170</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <f t="shared" si="0"/>
         <v>0.85263157894736841</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>0.11578947368421053</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>0.11578947368421053</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <v>3.1578947368421054E-2</v>
       </c>
       <c r="N13" s="6"/>
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>1000</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="24">
+        <v>20</v>
+      </c>
+      <c r="G14" s="23">
+        <v>168</v>
+      </c>
+      <c r="H14" s="25">
         <v>224</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="26">
-        <v>224</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="24">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="25">
-        <v>20</v>
-      </c>
-      <c r="G16" s="24">
-        <v>168</v>
-      </c>
-      <c r="H16" s="26">
-        <v>224</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="I14" s="30">
         <v>134</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J14" s="31">
         <f t="shared" si="0"/>
         <v>0.83157894736842108</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K14" s="31">
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L14" s="31">
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M14" s="32">
         <v>0.10526315789473684</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="30" t="s">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="24" t="s">
+      <c r="C15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E15" s="23">
         <v>1000</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F15" s="24">
         <v>74</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G15" s="23">
         <v>338</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H15" s="25">
         <v>380</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I15" s="30">
         <v>438</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J15" s="31">
         <f t="shared" si="0"/>
         <v>0.91578947368421049</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K15" s="31">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L15" s="31">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M15" s="32">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E16" s="23">
         <v>1000</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F16" s="24">
         <v>116</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G16" s="23">
         <v>394</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H16" s="25">
         <v>456</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I16" s="30">
         <v>448</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J16" s="31">
         <v>0.94</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K16" s="31">
         <v>0.02</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L16" s="31">
         <v>3.1578947368421054E-2</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M16" s="32">
         <v>3.15E-2</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="24" t="s">
+      <c r="C17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E17" s="23">
         <v>1000</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F17" s="24">
         <v>253</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G17" s="23">
         <v>552</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H17" s="25">
         <v>600</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I17" s="30">
         <v>995</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J17" s="31">
         <f t="shared" si="0"/>
         <v>0.96842105263157896</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K17" s="31">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L17" s="31">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M17" s="32">
         <v>2.1052631578947368E-2</v>
       </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="23">
+        <v>6012</v>
+      </c>
+      <c r="F18" s="24">
+        <v>130</v>
+      </c>
+      <c r="G18" s="23">
+        <v>191</v>
+      </c>
+      <c r="H18" s="25">
+        <v>300</v>
+      </c>
+      <c r="I18" s="30">
+        <v>189</v>
+      </c>
+      <c r="J18" s="33">
+        <f>1-K18</f>
+        <v>0.87368421052631584</v>
+      </c>
+      <c r="K18" s="33">
+        <f>12/95</f>
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="L18" s="33">
+        <f>2/95</f>
+        <v>2.1052631578947368E-2</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="23">
+        <v>21843</v>
+      </c>
+      <c r="F19" s="24">
+        <v>162</v>
+      </c>
+      <c r="G19" s="23">
+        <v>321</v>
+      </c>
+      <c r="H19" s="25">
+        <v>101</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="N19" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>21843</v>
       </c>
-      <c r="F20" s="25">
-        <v>162</v>
-      </c>
-      <c r="G20" s="24">
-        <v>321</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="F20" s="24">
+        <v>333</v>
+      </c>
+      <c r="G20" s="23">
+        <v>323</v>
+      </c>
+      <c r="H20" s="25">
         <v>101</v>
       </c>
-      <c r="I20" s="31">
-        <v>257</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>36</v>
+      <c r="I20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="B21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>21843</v>
       </c>
-      <c r="F21" s="25">
-        <v>333</v>
-      </c>
-      <c r="G21" s="24">
-        <v>323</v>
-      </c>
-      <c r="H21" s="26">
-        <v>101</v>
-      </c>
-      <c r="I21" s="31">
-        <v>212</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>36</v>
+      <c r="F21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="25">
+        <v>152</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="24">
-        <v>21843</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="26">
-        <v>152</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="36">
+        <v>90</v>
+      </c>
+      <c r="F22" s="37">
+        <v>26</v>
+      </c>
+      <c r="G22" s="36">
+        <v>163</v>
+      </c>
+      <c r="H22" s="38">
+        <v>224</v>
+      </c>
+      <c r="I22" s="26">
+        <v>120</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" ref="J22:J23" si="1">1-K22-M22</f>
+        <v>0.62105263157894741</v>
+      </c>
+      <c r="K22" s="27">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="L22" s="27">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
+        <v>0.28421052631578947</v>
+      </c>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="23">
         <v>90</v>
       </c>
-      <c r="F23" s="38">
-        <v>26</v>
-      </c>
-      <c r="G23" s="37">
-        <v>163</v>
-      </c>
-      <c r="H23" s="39">
+      <c r="F23" s="24">
+        <v>64</v>
+      </c>
+      <c r="G23" s="23">
+        <v>202</v>
+      </c>
+      <c r="H23" s="25">
         <v>224</v>
       </c>
-      <c r="I23" s="27">
-        <v>120</v>
-      </c>
-      <c r="J23" s="28">
-        <f t="shared" ref="J23:J24" si="1">1-K23-M23</f>
-        <v>0.62105263157894741</v>
-      </c>
-      <c r="K23" s="28">
-        <v>9.4736842105263161E-2</v>
-      </c>
-      <c r="L23" s="28">
-        <v>0</v>
-      </c>
-      <c r="M23" s="29">
-        <v>0.28421052631578947</v>
-      </c>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="24">
-        <v>90</v>
-      </c>
-      <c r="F24" s="25">
-        <v>64</v>
-      </c>
-      <c r="G24" s="24">
-        <v>202</v>
-      </c>
-      <c r="H24" s="26">
-        <v>224</v>
-      </c>
-      <c r="I24" s="31">
+      <c r="I23" s="30">
         <v>147</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J23" s="31">
         <f t="shared" si="1"/>
         <v>0.67368421052631577</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K23" s="31">
         <v>8.4210526315789472E-2</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L23" s="31">
         <v>0</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M23" s="32">
         <v>0.24210526315789474</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="23">
+        <v>100</v>
+      </c>
+      <c r="F24" s="24">
+        <v>62</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="25">
+        <v>416</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="B25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="24">
+      <c r="D25" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="23">
         <v>100</v>
       </c>
-      <c r="F25" s="25">
-        <v>62</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="F25" s="24">
+        <v>43</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="25">
         <v>416</v>
       </c>
-      <c r="I25" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>36</v>
+      <c r="I25" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="B26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="24">
+      <c r="D26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="23">
         <v>100</v>
       </c>
-      <c r="F26" s="25">
-        <v>43</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="26">
+      <c r="F26" s="24">
+        <v>34</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="25">
         <v>416</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="35" t="s">
-        <v>36</v>
+      <c r="I26" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="23">
+        <v>100</v>
+      </c>
+      <c r="F27" s="24">
+        <v>242</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="25">
+        <v>416</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="24" t="s">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="24">
-        <v>100</v>
-      </c>
-      <c r="F27" s="25">
+      <c r="D28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="23">
+        <v>600</v>
+      </c>
+      <c r="F28" s="24">
+        <v>55</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1434</v>
+      </c>
+      <c r="H28" s="25">
+        <v>300</v>
+      </c>
+      <c r="I28" s="30">
+        <v>2709</v>
+      </c>
+      <c r="J28" s="31">
+        <f t="shared" ref="J28" si="2">1-K28-M28</f>
+        <v>0.9263157894736842</v>
+      </c>
+      <c r="K28" s="31">
+        <v>2.1052631578947368E-2</v>
+      </c>
+      <c r="L28" s="31">
+        <v>0.16842105263157894</v>
+      </c>
+      <c r="M28" s="32">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="40">
+        <v>600</v>
+      </c>
+      <c r="F29" s="41">
+        <v>224</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1944</v>
+      </c>
+      <c r="H29" s="42">
+        <v>300</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="26">
-        <v>416</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="24">
-        <v>100</v>
-      </c>
-      <c r="F28" s="25">
-        <v>242</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="26">
-        <v>416</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="24">
-        <v>600</v>
-      </c>
-      <c r="F29" s="25">
-        <v>55</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1434</v>
-      </c>
-      <c r="H29" s="26">
-        <v>300</v>
-      </c>
-      <c r="I29" s="31">
-        <v>2709</v>
-      </c>
-      <c r="J29" s="32">
-        <f t="shared" ref="J29" si="2">1-K29-M29</f>
-        <v>0.9263157894736842</v>
-      </c>
-      <c r="K29" s="32">
-        <v>2.1052631578947368E-2</v>
-      </c>
-      <c r="L29" s="32">
-        <v>0.16842105263157894</v>
-      </c>
-      <c r="M29" s="33">
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="41">
-        <v>600</v>
-      </c>
-      <c r="F30" s="42">
-        <v>224</v>
-      </c>
-      <c r="G30" s="41">
-        <v>1944</v>
-      </c>
-      <c r="H30" s="43">
-        <v>300</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:N30" xr:uid="{0041FA21-C734-47E2-9605-B6E4CDD7F534}"/>
+  <autoFilter ref="B3:N29" xr:uid="{0041FA21-C734-47E2-9605-B6E4CDD7F534}"/>
   <mergeCells count="1">
     <mergeCell ref="J2:M2"/>
   </mergeCells>

--- a/MODELS.xlsx
+++ b/MODELS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WYSE\Home\dev\pigallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37026E-24D3-49F9-8BDE-E1BA11F41629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6CB6BB-EC08-43A5-B9B8-10DD54A29316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{5E1FBCF5-0A35-4073-AF84-4DBDFF6F4B57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>DeepDetect</t>
+  </si>
+  <si>
+    <t>iNaturalist</t>
+  </si>
+  <si>
+    <t>MobileNet v1 Food</t>
+  </si>
+  <si>
+    <t>MobileNet v2 Plants</t>
+  </si>
+  <si>
+    <t>MobileNet v2 Birds</t>
+  </si>
+  <si>
+    <t>MobileNet v2 Insects</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -563,6 +578,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -880,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E8F53-D3D8-4705-BCEE-FCFF3106DC67}">
-  <dimension ref="B2:X29"/>
+  <dimension ref="B2:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2024,6 +2045,162 @@
         <v>34</v>
       </c>
     </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="36">
+        <v>2023</v>
+      </c>
+      <c r="F30" s="37">
+        <v>20</v>
+      </c>
+      <c r="G30" s="36">
+        <v>58</v>
+      </c>
+      <c r="H30" s="38">
+        <v>192</v>
+      </c>
+      <c r="I30" s="26">
+        <v>45</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2100</v>
+      </c>
+      <c r="F31" s="24">
+        <v>19</v>
+      </c>
+      <c r="G31" s="23">
+        <v>169</v>
+      </c>
+      <c r="H31" s="25">
+        <v>224</v>
+      </c>
+      <c r="I31" s="30">
+        <v>58</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="23">
+        <v>963</v>
+      </c>
+      <c r="F32" s="24">
+        <v>13</v>
+      </c>
+      <c r="G32" s="23">
+        <v>170</v>
+      </c>
+      <c r="H32" s="25">
+        <v>224</v>
+      </c>
+      <c r="I32" s="30">
+        <v>34</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="40">
+        <v>1020</v>
+      </c>
+      <c r="F33" s="41">
+        <v>13</v>
+      </c>
+      <c r="G33" s="40">
+        <v>169</v>
+      </c>
+      <c r="H33" s="42">
+        <v>224</v>
+      </c>
+      <c r="I33" s="43">
+        <v>32</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="B3:N29" xr:uid="{0041FA21-C734-47E2-9605-B6E4CDD7F534}"/>
   <mergeCells count="1">

--- a/MODELS.xlsx
+++ b/MODELS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WYSE\Home\dev\pigallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6CB6BB-EC08-43A5-B9B8-10DD54A29316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858877D-E063-41F0-BCDB-DFC5106FA753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{5E1FBCF5-0A35-4073-AF84-4DBDFF6F4B57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Model</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>MobileNet v2 Insects</t>
+  </si>
+  <si>
+    <t>Corrupt class output, expected 21k got 2k range</t>
   </si>
 </sst>
 </file>
@@ -577,13 +580,13 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -935,12 +938,12 @@
       <c r="G2" s="11"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.35">
@@ -1615,10 +1618,10 @@
         <v>321</v>
       </c>
       <c r="H19" s="25">
-        <v>101</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>33</v>
+        <v>224</v>
+      </c>
+      <c r="I19" s="30">
+        <v>156</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>33</v>
@@ -1633,7 +1636,7 @@
         <v>33</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
@@ -1658,24 +1661,22 @@
       <c r="H20" s="25">
         <v>101</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="I20" s="30">
+        <v>225</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.2631</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="L20" s="33">
+        <v>0</v>
+      </c>
+      <c r="M20" s="34">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
@@ -1812,10 +1813,10 @@
         <v>100</v>
       </c>
       <c r="F24" s="24">
-        <v>62</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="G24" s="23">
+        <v>42</v>
       </c>
       <c r="H24" s="25">
         <v>416</v>
@@ -1855,8 +1856,8 @@
       <c r="F25" s="24">
         <v>43</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>33</v>
+      <c r="G25" s="23">
+        <v>42</v>
       </c>
       <c r="H25" s="25">
         <v>416</v>
@@ -1896,8 +1897,8 @@
       <c r="F26" s="24">
         <v>34</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>33</v>
+      <c r="G26" s="23">
+        <v>59</v>
       </c>
       <c r="H26" s="25">
         <v>416</v>
@@ -1935,10 +1936,10 @@
         <v>100</v>
       </c>
       <c r="F27" s="24">
-        <v>242</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
+        <v>237</v>
+      </c>
+      <c r="G27" s="23">
+        <v>366</v>
       </c>
       <c r="H27" s="25">
         <v>416</v>
@@ -2018,7 +2019,7 @@
         <v>600</v>
       </c>
       <c r="F29" s="41">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="G29" s="40">
         <v>1944</v>
@@ -2070,16 +2071,16 @@
       <c r="I30" s="26">
         <v>45</v>
       </c>
-      <c r="J30" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="52" t="s">
+      <c r="J30" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="51" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="7"/>
